--- a/results/ResNet18/Imagenette/quant-dynamic_pruning_quant-static_low-rank/1_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/quant-dynamic_pruning_quant-static_low-rank/1_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.064</v>
+        <v>0.033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.593</v>
+        <v>0.592</v>
       </c>
       <c r="D4" t="n">
-        <v>826.5599999999999</v>
+        <v>1693.94</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03</v>
+        <v>0.022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.576</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>1820</v>
+        <v>3027.27</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.053</v>
+        <v>0.022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.616</v>
+        <v>0.247</v>
       </c>
       <c r="D6" t="n">
-        <v>1062.26</v>
+        <v>1022.73</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.31309571955353</v>
+        <v>1.560392218874767</v>
       </c>
       <c r="C4" t="n">
-        <v>1.257091967738234</v>
+        <v>1.4335523119953</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.27</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1693341318826706</v>
+        <v>0.3843128426648935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1630200937577179</v>
+        <v>0.3176064998688759</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.73</v>
+        <v>-17.36</v>
       </c>
     </row>
     <row r="5">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.1179169208886</v>
+        <v>10.77687258673076</v>
       </c>
       <c r="C6" t="n">
-        <v>24.80666175086661</v>
+        <v>24.18408214006645</v>
       </c>
       <c r="D6" t="n">
-        <v>145.18</v>
+        <v>124.41</v>
       </c>
       <c r="E6" t="n">
-        <v>1.860766373554928</v>
+        <v>1.47744333396546</v>
       </c>
       <c r="F6" t="n">
-        <v>5.501957414920217</v>
+        <v>3.851586979148232</v>
       </c>
       <c r="G6" t="n">
-        <v>195.68</v>
+        <v>160.69</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/quant-dynamic_pruning_quant-static_low-rank/1_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/quant-dynamic_pruning_quant-static_low-rank/1_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
